--- a/va_facility_data_2025-02-20/Aurora VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Aurora%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Aurora VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Aurora%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re2325b42f0c049a7a12cdbbf64998140"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R073be5e17a654758bd6336177b26a2f4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9840e3247c864eb9b386b52a2ca3571e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R230fde90df91452d8792efdb3dff2de9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3741da968fa34115a0f9cce3a16f1c64"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R35c0f8126bcd4c40894c6d5a4ccf427d"/>
   </x:sheets>
 </x:workbook>
 </file>
